--- a/Employee_Reports35/Joe Vergil Jr Calanza Dormitorio Q0556.xlsx
+++ b/Employee_Reports35/Joe Vergil Jr Calanza Dormitorio Q0556.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -916,11 +916,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">

--- a/Employee_Reports35/Joe Vergil Jr Calanza Dormitorio Q0556.xlsx
+++ b/Employee_Reports35/Joe Vergil Jr Calanza Dormitorio Q0556.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -916,11 +916,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
